--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1059417.55681561</v>
+        <v>1073143.914953028</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>696384.8879094827</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="E2" t="n">
         <v>194344.9318547681</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777514</v>
+        <v>195141.3279777515</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777514</v>
+        <v>195141.3279777515</v>
       </c>
       <c r="D6" t="n">
-        <v>195141.3279777513</v>
+        <v>195141.3279777515</v>
       </c>
       <c r="E6" t="n">
-        <v>-22003.48025473989</v>
+        <v>-22003.48025473995</v>
       </c>
       <c r="F6" t="n">
         <v>111096.5197452601</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073143.914953028</v>
+        <v>989358.5131914028</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777515</v>
+        <v>195097.1921990704</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777515</v>
+        <v>195097.1921990704</v>
       </c>
       <c r="D6" t="n">
-        <v>195141.3279777515</v>
+        <v>195097.1921990704</v>
       </c>
       <c r="E6" t="n">
-        <v>-22003.48025473995</v>
+        <v>-36813.49709385386</v>
       </c>
       <c r="F6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="G6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="H6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="I6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="J6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="K6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="L6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="M6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="N6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="O6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
       <c r="P6" t="n">
-        <v>111096.5197452601</v>
+        <v>96286.50290614621</v>
       </c>
     </row>
   </sheetData>
